--- a/NewMexico/Regulatory/NMre_Regulatory Schema Mapping to WaDE.xlsx
+++ b/NewMexico/Regulatory/NMre_Regulatory Schema Mapping to WaDE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NewMexico\Regulatory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EBCEEF-6A9F-4AE5-842C-ADE415CED9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB10F51-E69A-4B39-9E99-21B37E82F8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" activeTab="5" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="174">
   <si>
     <t>Name</t>
   </si>
@@ -528,9 +528,6 @@
     <t>"WaDE Unspecified"</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>*I might have added this by hand.</t>
   </si>
   <si>
@@ -560,36 +557,52 @@
     </r>
   </si>
   <si>
-    <t>URL
-URL</t>
+    <t>Full_Name
+name
+Name</t>
   </si>
   <si>
     <t>iscr
-OSE</t>
+OSE
+scwr</t>
+  </si>
+  <si>
+    <t>OID_
+ose_dist_i
+OID_</t>
+  </si>
+  <si>
+    <t>Interstate River Compact
+Water Rights District
+Special Condition Water Right</t>
+  </si>
+  <si>
+    <t>RegulatoryDescription
+-
+requiremen</t>
+  </si>
+  <si>
+    <t>iscr
+-
+scwr</t>
+  </si>
+  <si>
+    <t>URL
+URL
+-</t>
+  </si>
+  <si>
+    <t>"WaDE Unspecified</t>
   </si>
   <si>
     <t>EffectiveDate
-"08/12/2021"</t>
+"08/12/2021"
+effect_dat</t>
   </si>
   <si>
     <t>Surface Water
+Surface Water and Groundwater
 Surface Water and Groundwater</t>
-  </si>
-  <si>
-    <t>Interstate River Compact
-Water Rights District</t>
-  </si>
-  <si>
-    <t>Full_Name
-name</t>
-  </si>
-  <si>
-    <t>iscr
--</t>
-  </si>
-  <si>
-    <t>OID_
-ose_dist_i</t>
   </si>
 </sst>
 </file>
@@ -1596,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2233,8 +2246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8F7217-4558-4FC0-BDBF-3C3F69A96747}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2411,7 +2424,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>64</v>
       </c>
@@ -2426,10 +2439,10 @@
         <v>11</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G7" s="96" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H7" s="72" t="s">
         <v>11</v>
@@ -2441,7 +2454,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>66</v>
       </c>
@@ -2456,10 +2469,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="96" t="s">
         <v>166</v>
-      </c>
-      <c r="G8" s="96" t="s">
-        <v>172</v>
       </c>
       <c r="H8" s="72" t="s">
         <v>11</v>
@@ -2501,7 +2514,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>68</v>
       </c>
@@ -2513,10 +2526,10 @@
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="67" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G10" s="96"/>
       <c r="H10" s="72" t="s">
@@ -2655,8 +2668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840F4EBE-1122-49FE-9814-7C21AEF7536A}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2807,13 +2820,13 @@
         <v>11</v>
       </c>
       <c r="E6" s="92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G6" s="101" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="H6" s="34" t="s">
         <v>11</v>
@@ -2823,7 +2836,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>77</v>
       </c>
@@ -2840,10 +2853,10 @@
         <v>11</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G7" s="96" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H7" s="34" t="s">
         <v>11</v>
@@ -2943,7 +2956,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="11" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="11" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>83</v>
       </c>
@@ -2957,13 +2970,13 @@
         <v>11</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G11" s="96" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H11" s="59" t="s">
         <v>11</v>
@@ -2973,7 +2986,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="11" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="11" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>84</v>
       </c>
@@ -2987,13 +3000,13 @@
         <v>11</v>
       </c>
       <c r="E12" s="100" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G12" s="96" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H12" s="59" t="s">
         <v>11</v>
@@ -3037,7 +3050,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>94</v>
       </c>
@@ -3051,10 +3064,10 @@
         <v>14</v>
       </c>
       <c r="E14" s="67" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F14" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>11</v>
@@ -3066,7 +3079,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>95</v>
       </c>
@@ -3080,10 +3093,10 @@
         <v>14</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F15" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>11</v>
@@ -3132,8 +3145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466A648D-819E-4218-A4B0-4C8007085FA3}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:G7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/NewMexico/Regulatory/NMre_Regulatory Schema Mapping to WaDE.xlsx
+++ b/NewMexico/Regulatory/NMre_Regulatory Schema Mapping to WaDE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NewMexico\Regulatory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB10F51-E69A-4B39-9E99-21B37E82F8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83575C81-4C42-4ED4-910D-B24A1246CFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" activeTab="5" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="174">
   <si>
     <t>Name</t>
   </si>
@@ -420,9 +420,6 @@
     <t>NMre_RO + counter</t>
   </si>
   <si>
-    <t>NMOSE</t>
-  </si>
-  <si>
     <t>ose.webmaster@state.nm.us</t>
   </si>
   <si>
@@ -465,9 +462,6 @@
     <t>*get from reportingunit.csv</t>
   </si>
   <si>
-    <t>had to mannualy load in date</t>
-  </si>
-  <si>
     <t>New Mexico</t>
   </si>
   <si>
@@ -508,9 +502,6 @@
   </si>
   <si>
     <t>I could probalby set a NM UUID value, then prfrom this 'within' join, then populate csv and populate reg bridge info for the sites.csv file.</t>
-  </si>
-  <si>
-    <t>NMwr_O1</t>
   </si>
   <si>
     <t>*will pull from shp file</t>
@@ -604,6 +595,15 @@
 Surface Water and Groundwater
 Surface Water and Groundwater</t>
   </si>
+  <si>
+    <t>may want to extend the nvarchar(50) limitation on RegulatoryName.  A few records were removed for having a name &gt; 50 nvarchar.</t>
+  </si>
+  <si>
+    <t>NMre_O1</t>
+  </si>
+  <si>
+    <t>*load in date mannualy</t>
+  </si>
 </sst>
 </file>
 
@@ -612,7 +612,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,12 +778,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Abadi Extra Light"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -979,7 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1264,9 +1258,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1280,16 +1271,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1308,6 +1291,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>662353</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2168769</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>8551</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094FB0CC-93D6-A799-EE49-858006D84732}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1582615" y="3464171"/>
+          <a:ext cx="1506416" cy="1087072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1607,78 +1639,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="102" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="101" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="101" t="s">
         <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="102" t="s">
-        <v>143</v>
+      <c r="A2" s="101" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="103" t="s">
-        <v>145</v>
+      <c r="B3" s="102" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="103" t="s">
-        <v>146</v>
+      <c r="B4" s="102" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="101" t="s">
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="102" t="s">
-        <v>144</v>
+      <c r="A16" s="101" t="s">
+        <v>142</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="103" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1688,6 +1725,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1696,7 +1734,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1786,7 +1824,9 @@
       <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="66"/>
+      <c r="E4" s="66">
+        <v>45042</v>
+      </c>
       <c r="F4" s="59"/>
       <c r="G4" s="60"/>
       <c r="H4" s="80" t="s">
@@ -1812,7 +1852,9 @@
       <c r="D5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="58">
+        <v>2023</v>
+      </c>
       <c r="F5" s="59"/>
       <c r="G5" s="62"/>
       <c r="H5" s="80" t="s">
@@ -1863,7 +1905,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1966,7 +2008,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="88" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="33"/>
@@ -1994,7 +2036,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="27"/>
@@ -2022,7 +2064,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6" s="59"/>
       <c r="G6" s="60"/>
@@ -2050,7 +2092,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" s="59"/>
       <c r="G7" s="60"/>
@@ -2078,7 +2120,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="59"/>
       <c r="G8" s="60"/>
@@ -2106,7 +2148,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" s="59"/>
       <c r="G9" s="60"/>
@@ -2134,7 +2176,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F10" s="59"/>
       <c r="G10" s="60"/>
@@ -2162,7 +2204,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="89" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F11" s="59"/>
       <c r="G11" s="60"/>
@@ -2206,7 +2248,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E15" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -2247,7 +2289,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2406,7 +2448,7 @@
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="95" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F6" s="59" t="s">
         <v>11</v>
@@ -2439,10 +2481,10 @@
         <v>11</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G7" s="96" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H7" s="72" t="s">
         <v>11</v>
@@ -2469,10 +2511,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G8" s="96" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H8" s="72" t="s">
         <v>11</v>
@@ -2526,10 +2568,10 @@
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="67" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G10" s="96"/>
       <c r="H10" s="72" t="s">
@@ -2668,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840F4EBE-1122-49FE-9814-7C21AEF7536A}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2790,7 +2832,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="92" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F5" s="95" t="s">
         <v>11</v>
@@ -2820,13 +2862,13 @@
         <v>11</v>
       </c>
       <c r="E6" s="92" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="101" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="G6" s="100" t="s">
+        <v>165</v>
       </c>
       <c r="H6" s="34" t="s">
         <v>11</v>
@@ -2853,10 +2895,10 @@
         <v>11</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G7" s="96" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H7" s="34" t="s">
         <v>11</v>
@@ -2880,7 +2922,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>11</v>
@@ -2910,7 +2952,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>11</v>
@@ -2970,13 +3012,13 @@
         <v>11</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G11" s="96" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H11" s="59" t="s">
         <v>11</v>
@@ -2999,14 +3041,14 @@
       <c r="D12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="100" t="s">
+      <c r="E12" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F12" s="58" t="s">
-        <v>165</v>
-      </c>
       <c r="G12" s="96" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H12" s="59" t="s">
         <v>11</v>
@@ -3064,10 +3106,10 @@
         <v>14</v>
       </c>
       <c r="E14" s="67" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F14" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>11</v>
@@ -3093,10 +3135,10 @@
         <v>14</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F15" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>11</v>
@@ -3145,8 +3187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466A648D-819E-4218-A4B0-4C8007085FA3}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3227,9 +3269,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>25</v>
@@ -3240,16 +3282,16 @@
       <c r="D4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="98" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" s="104" t="s">
+      <c r="E4" s="104" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="105" t="s">
+      <c r="G4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="99" t="s">
+      <c r="H4" s="98" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="68" t="s">
@@ -3272,13 +3314,13 @@
       <c r="D5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="106" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="104" t="s">
+      <c r="E5" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="60" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="68" t="s">
@@ -3304,13 +3346,13 @@
       <c r="D6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="107" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="104" t="s">
+      <c r="E6" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="105" t="s">
+      <c r="G6" s="60" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="68" t="s">
@@ -3336,13 +3378,13 @@
       <c r="D7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="107" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="104" t="s">
+      <c r="E7" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="60" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="68" t="s">
@@ -3425,6 +3467,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K7">
     <sortCondition ref="A4:A7"/>
   </sortState>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3434,7 +3477,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3493,7 +3536,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>25</v>
@@ -3514,7 +3557,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3545,7 +3588,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>25</v>
@@ -3566,7 +3609,7 @@
         <v>10755</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3574,17 +3617,17 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E8" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E9" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E10" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/NewMexico/Regulatory/NMre_Regulatory Schema Mapping to WaDE.xlsx
+++ b/NewMexico/Regulatory/NMre_Regulatory Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NewMexico\Regulatory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94313ED-806E-4B48-96E7-88D1AF9CF510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE1A560-3E9D-4280-8796-06416C264510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" activeTab="3" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -477,12 +477,6 @@
     <t>NMre_O1</t>
   </si>
   <si>
-    <t>ose.webmaster@state.nm.us</t>
-  </si>
-  <si>
-    <t>David Hatchner (GIS Manager)</t>
-  </si>
-  <si>
     <t>New Mexico Office of the State Engineer</t>
   </si>
   <si>
@@ -580,6 +574,12 @@
   <si>
     <t>alt_name
 NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">julie.valdez@state.nm.us </t>
+  </si>
+  <si>
+    <t>Julie Valdez</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1658,7 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="66"/>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="65"/>
     </row>
@@ -1671,7 +1671,7 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" s="65"/>
     </row>
@@ -1897,9 +1897,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2040,7 +2040,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="115" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>8</v>
@@ -2075,7 +2075,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="116" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>8</v>
@@ -2110,7 +2110,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="117" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>8</v>
@@ -2145,7 +2145,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="116" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>8</v>
@@ -2180,7 +2180,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="116" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>8</v>
@@ -2215,7 +2215,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="115" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G9" s="31" t="s">
         <v>8</v>
@@ -2250,7 +2250,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G10" s="31" t="s">
         <v>8</v>
@@ -2310,7 +2310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8F7217-4558-4FC0-BDBF-3C3F69A96747}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
@@ -2418,7 +2418,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="56" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G3" s="57" t="s">
         <v>8</v>
@@ -2492,7 +2492,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>8</v>
@@ -2532,10 +2532,10 @@
         <v>8</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H6" s="60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I6" s="78" t="s">
         <v>8</v>
@@ -2566,7 +2566,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G7" s="59" t="s">
         <v>8</v>
@@ -2603,7 +2603,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G8" s="46" t="s">
         <v>8</v>
@@ -2638,10 +2638,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="118" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H9" s="60"/>
       <c r="I9" s="78" t="s">
@@ -2676,10 +2676,10 @@
         <v>8</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H10" s="60" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I10" s="78" t="s">
         <v>8</v>
@@ -2710,7 +2710,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G11" s="46" t="s">
         <v>8</v>
@@ -2894,7 +2894,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="56" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G3" s="57" t="s">
         <v>8</v>
@@ -2929,13 +2929,13 @@
         <v>8</v>
       </c>
       <c r="F4" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="60" t="s">
         <v>164</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>166</v>
       </c>
       <c r="I4" s="31" t="s">
         <v>8</v>
@@ -2964,13 +2964,13 @@
         <v>8</v>
       </c>
       <c r="F5" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="60" t="s">
         <v>165</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>167</v>
       </c>
       <c r="I5" s="31" t="s">
         <v>8</v>
@@ -3002,10 +3002,10 @@
         <v>8</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H6" s="60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>8</v>
@@ -3034,7 +3034,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G7" s="46" t="s">
         <v>8</v>
@@ -3104,7 +3104,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G9" s="59" t="s">
         <v>8</v>
@@ -3137,10 +3137,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="120" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H10" s="60" t="s">
         <v>8</v>
@@ -3172,13 +3172,13 @@
         <v>8</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H11" s="60" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I11" s="46" t="s">
         <v>8</v>
@@ -3207,7 +3207,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G12" s="59" t="s">
         <v>8</v>
@@ -3240,13 +3240,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="121" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H13" s="60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I13" s="31" t="s">
         <v>8</v>
@@ -3275,10 +3275,10 @@
         <v>10</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H14" s="47" t="s">
         <v>8</v>
@@ -3496,7 +3496,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="47"/>
@@ -3527,7 +3527,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="47"/>
